--- a/biology/Botanique/Malacothrix_coulteri/Malacothrix_coulteri.xlsx
+++ b/biology/Botanique/Malacothrix_coulteri/Malacothrix_coulteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacothrix coulteri est une espèce de plante à fleurs de la famille des composées (Asteraceae).
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante aux tiges lisses et ramifiées et produisant du latex mesure de 10 à 50 cm de hauteur. Les feuilles sont majoritairement regroupées près de la base. Celle situées à la base sont lancéolées, grossièrement dentées et mesurent de 5 à 10 cm de longueur ; celles situées sur la tige sont généralement plus petites et ont une base qui embrasse la tige[1].
-Appareil reproducteur
-La floraison a lieu entre mars et mai.
-L'inflorescence est un capitule liguliflore, normalement jaune pâle mais parfois strié de rouge violacé sur le côté extérieur, de 2,5 à 4 cm de diamètre. Les nombreuses bractées portent une bande étroite violacée et leur bordure très fine est parcheminée. Les fruits sont des akènes étroits, de couleur beige verdâtre. Chaque akène présente de 4 à 5 angles encadrant deux lignes fines et est surmonté de longues soies fines et fragiles[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante aux tiges lisses et ramifiées et produisant du latex mesure de 10 à 50 cm de hauteur. Les feuilles sont majoritairement regroupées près de la base. Celle situées à la base sont lancéolées, grossièrement dentées et mesurent de 5 à 10 cm de longueur ; celles situées sur la tige sont généralement plus petites et ont une base qui embrasse la tige.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et mai.
+L'inflorescence est un capitule liguliflore, normalement jaune pâle mais parfois strié de rouge violacé sur le côté extérieur, de 2,5 à 4 cm de diamètre. Les nombreuses bractées portent une bande étroite violacée et leur bordure très fine est parcheminée. Les fruits sont des akènes étroits, de couleur beige verdâtre. Chaque akène présente de 4 à 5 angles encadrant deux lignes fines et est surmonté de longues soies fines et fragiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malacothrix_coulteri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malacothrix_coulteri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacothrix coulteri vit au sud-ouest des États-Unis, de la Californie à l'Utah et à l'Arizona.
 Elle pousse dans les prairies arides.
